--- a/quechua.xlsx
+++ b/quechua.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="69">
   <si>
     <t>singular</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>tercera</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
   <si>
     <t>nku</t>
@@ -261,11 +264,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -563,11 +569,11 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -1585,10 +1591,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -1596,10 +1602,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -1607,10 +1613,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -1618,10 +1624,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -2639,10 +2645,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -2650,10 +2656,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -2661,10 +2667,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -2672,10 +2678,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -3693,10 +3699,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -3704,10 +3710,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -3715,10 +3721,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -3726,10 +3732,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -4749,10 +4755,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -4760,10 +4766,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -4771,10 +4777,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -4782,10 +4788,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -5805,10 +5811,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -5816,10 +5822,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
@@ -5827,10 +5833,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -5838,10 +5844,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -6861,10 +6867,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -6872,10 +6878,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -6883,10 +6889,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -6894,10 +6900,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -7917,10 +7923,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -7928,10 +7934,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -7939,10 +7945,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -7950,10 +7956,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -8973,10 +8979,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -8984,10 +8990,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -8995,10 +9001,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -9006,10 +9012,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
